--- a/biology/Zoologie/Homonota_andicola/Homonota_andicola.xlsx
+++ b/biology/Zoologie/Homonota_andicola/Homonota_andicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homonota andicola est une espèce de geckos de la famille des Phyllodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homonota andicola est une espèce de geckos de la famille des Phyllodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Argentine. Elle se rencontre entre les villes d'Angualasto dans la province de San Juan et d'Uspallata dans la province de Mendoza[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Argentine. Elle se rencontre entre les villes d'Angualasto dans la province de San Juan et d'Uspallata dans la province de Mendoza.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cei, 1978 :  Homonota andicola, nueva especie de Gekkonidae (Sauria, Reptilia) de la regiôn Andina de Uspallata, Argentina. Publicaciones Ocasionales Instituto de Biologia Animal, Universidad Nacional de Cuyo, Mendoza, Argentina, no 1, p. 1—2.</t>
         </is>
